--- a/final_project/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
+++ b/final_project/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjaud\OneDrive\바탕 화면\예측 코드- Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\Jung_eun\final_project\예측 코드- Python\여행객 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F2B252-F8DF-4338-9A3D-671F85F192BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="0" windowWidth="12975" windowHeight="15375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,7 +481,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -491,7 +490,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -766,20 +765,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="61" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -964,7 +964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1149,48 +1149,192 @@
         <v>39397941</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
+      <c r="B3">
+        <v>192364679</v>
+      </c>
+      <c r="C3">
+        <v>171686798</v>
+      </c>
+      <c r="D3">
+        <v>210242563</v>
+      </c>
+      <c r="E3">
+        <v>189516377</v>
+      </c>
+      <c r="F3">
+        <v>216436894</v>
+      </c>
+      <c r="G3">
+        <v>203677139</v>
+      </c>
+      <c r="H3">
+        <v>211707181</v>
+      </c>
+      <c r="I3">
+        <v>207659108</v>
+      </c>
+      <c r="J3">
+        <v>215060799</v>
+      </c>
+      <c r="K3">
+        <v>217099460</v>
+      </c>
+      <c r="L3">
+        <v>202720355</v>
+      </c>
+      <c r="M3">
+        <v>211875827</v>
+      </c>
+      <c r="N3" s="1">
+        <v>209161375</v>
+      </c>
+      <c r="O3" s="1">
+        <v>182621444</v>
+      </c>
+      <c r="P3" s="1">
+        <v>229520757</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>193707338</v>
+      </c>
+      <c r="R3" s="1">
+        <v>205044615</v>
+      </c>
+      <c r="S3" s="1">
+        <v>199677632</v>
+      </c>
+      <c r="T3" s="1">
+        <v>206443180</v>
+      </c>
+      <c r="U3" s="1">
+        <v>219582862</v>
+      </c>
+      <c r="V3" s="1">
+        <v>207808271</v>
+      </c>
+      <c r="W3" s="1">
+        <v>210379380</v>
+      </c>
+      <c r="X3" s="1">
+        <v>224200105</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>220302304</v>
+      </c>
+      <c r="Z3">
+        <v>220060091</v>
+      </c>
+      <c r="AA3">
+        <v>196867488</v>
+      </c>
+      <c r="AB3">
+        <v>202042910</v>
+      </c>
+      <c r="AC3">
+        <v>202465211</v>
+      </c>
+      <c r="AD3">
+        <v>221067876</v>
+      </c>
+      <c r="AE3">
+        <v>216291101</v>
+      </c>
+      <c r="AF3">
+        <v>227404269</v>
+      </c>
+      <c r="AG3">
+        <v>212920144</v>
+      </c>
+      <c r="AH3">
+        <v>212207098</v>
+      </c>
+      <c r="AI3">
+        <v>226044036</v>
+      </c>
+      <c r="AJ3">
+        <v>215467839</v>
+      </c>
+      <c r="AK3">
+        <v>200203591</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>195960342</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>193211934</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>230666374</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>217556454</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>233946860</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>232507214</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>229145891</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>224290738</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>229010424</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>238934806</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>231165591</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>233356048</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>226269568</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>202358377</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>234218712</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>239170391</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>252909502</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>246383319</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>256885328</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>252770616</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>254043546</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>260418115</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>253142084</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>251897976</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1231,7 +1375,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1272,7 +1416,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1313,7 +1457,7 @@
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1354,7 +1498,7 @@
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1539,7 @@
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1436,7 +1580,7 @@
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1480,7 +1624,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1521,7 +1665,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1562,7 +1706,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1603,7 +1747,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1644,7 +1788,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1685,7 +1829,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1726,7 +1870,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>

--- a/final_project/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
+++ b/final_project/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\Jung_eun\final_project\예측 코드- Python\여행객 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\J_plus_D\예측 코드- Python\예측 코드- Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>경기도</t>
   </si>
@@ -250,21 +250,338 @@
   </si>
   <si>
     <t>충청북도</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 01월</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 02월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 03월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 04월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 05월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 06월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 07월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 08월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 09월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -291,11 +608,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,19 +1087,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI17"/>
+  <dimension ref="A1:BU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BI3" sqref="BI3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="61" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="73" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -963,8 +1283,44 @@
       <c r="BI1" t="s">
         <v>56</v>
       </c>
+      <c r="BJ1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1148,8 +1504,44 @@
       <c r="BI2" s="1">
         <v>39397941</v>
       </c>
+      <c r="BJ2">
+        <v>40252885</v>
+      </c>
+      <c r="BK2">
+        <v>37064583</v>
+      </c>
+      <c r="BL2">
+        <v>42389777</v>
+      </c>
+      <c r="BM2">
+        <v>39808297</v>
+      </c>
+      <c r="BN2">
+        <v>44459764</v>
+      </c>
+      <c r="BO2">
+        <v>43673242</v>
+      </c>
+      <c r="BP2">
+        <v>45989669</v>
+      </c>
+      <c r="BQ2">
+        <v>47870485</v>
+      </c>
+      <c r="BR2">
+        <v>44049658</v>
+      </c>
+      <c r="BS2">
+        <v>45686989</v>
+      </c>
+      <c r="BT2">
+        <v>41121245</v>
+      </c>
+      <c r="BU2">
+        <v>42858260</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1333,64 +1725,340 @@
       <c r="BI3" s="1">
         <v>251897976</v>
       </c>
+      <c r="BJ3">
+        <v>245677734</v>
+      </c>
+      <c r="BK3">
+        <v>232608482</v>
+      </c>
+      <c r="BL3">
+        <v>266872287</v>
+      </c>
+      <c r="BM3">
+        <v>247531331</v>
+      </c>
+      <c r="BN3">
+        <v>267742281</v>
+      </c>
+      <c r="BO3">
+        <v>249295042</v>
+      </c>
+      <c r="BP3">
+        <v>254800719</v>
+      </c>
+      <c r="BQ3">
+        <v>248729084</v>
+      </c>
+      <c r="BR3">
+        <v>247742198</v>
+      </c>
+      <c r="BS3">
+        <v>259662875</v>
+      </c>
+      <c r="BT3">
+        <v>249119146</v>
+      </c>
+      <c r="BU3">
+        <v>250957678</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
+      <c r="B4">
+        <v>52748983</v>
+      </c>
+      <c r="C4">
+        <v>49410808</v>
+      </c>
+      <c r="D4">
+        <v>56243537</v>
+      </c>
+      <c r="E4">
+        <v>52474678</v>
+      </c>
+      <c r="F4">
+        <v>57713155</v>
+      </c>
+      <c r="G4">
+        <v>54252403</v>
+      </c>
+      <c r="H4">
+        <v>57240135</v>
+      </c>
+      <c r="I4">
+        <v>56880838</v>
+      </c>
+      <c r="J4">
+        <v>57323573</v>
+      </c>
+      <c r="K4">
+        <v>56395048</v>
+      </c>
+      <c r="L4">
+        <v>53633152</v>
+      </c>
+      <c r="M4">
+        <v>55939575</v>
+      </c>
+      <c r="N4" s="1">
+        <v>53787030</v>
+      </c>
+      <c r="O4" s="1">
+        <v>51212424</v>
+      </c>
+      <c r="P4" s="1">
+        <v>58538396</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>52879209</v>
+      </c>
+      <c r="R4" s="1">
+        <v>57636436</v>
+      </c>
+      <c r="S4" s="1">
+        <v>53939699</v>
+      </c>
+      <c r="T4" s="1">
+        <v>57678625</v>
+      </c>
+      <c r="U4" s="1">
+        <v>57500743</v>
+      </c>
+      <c r="V4" s="1">
+        <v>56320482</v>
+      </c>
+      <c r="W4" s="1">
+        <v>57600015</v>
+      </c>
+      <c r="X4" s="1">
+        <v>55997879</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>58523214</v>
+      </c>
+      <c r="Z4">
+        <v>57836115</v>
+      </c>
+      <c r="AA4">
+        <v>51268614</v>
+      </c>
+      <c r="AB4">
+        <v>51887939</v>
+      </c>
+      <c r="AC4">
+        <v>51727638</v>
+      </c>
+      <c r="AD4">
+        <v>58375501</v>
+      </c>
+      <c r="AE4">
+        <v>56863854</v>
+      </c>
+      <c r="AF4">
+        <v>58389905</v>
+      </c>
+      <c r="AG4">
+        <v>59373037</v>
+      </c>
+      <c r="AH4">
+        <v>57323080</v>
+      </c>
+      <c r="AI4">
+        <v>59756313</v>
+      </c>
+      <c r="AJ4">
+        <v>56506834</v>
+      </c>
+      <c r="AK4">
+        <v>54429943</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>52113221</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>51143145</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>58601668</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>55143659</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>59327649</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>58441728</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>59517121</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>58044508</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>60164491</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>61520444</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>58641624</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>58585561</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>58193858</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>51225044</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>59823831</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>59434559</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>65092205</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>62261487</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>66092824</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>64930644</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>64588750</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>66559567</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>63745056</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>63977462</v>
+      </c>
+      <c r="BJ4">
+        <v>63769618</v>
+      </c>
+      <c r="BK4">
+        <v>57252339</v>
+      </c>
+      <c r="BL4">
+        <v>66938292</v>
+      </c>
+      <c r="BM4">
+        <v>63164335</v>
+      </c>
+      <c r="BN4">
+        <v>67883391</v>
+      </c>
+      <c r="BO4">
+        <v>63848833</v>
+      </c>
+      <c r="BP4">
+        <v>64786381</v>
+      </c>
+      <c r="BQ4">
+        <v>64924457</v>
+      </c>
+      <c r="BR4">
+        <v>65324191</v>
+      </c>
+      <c r="BS4">
+        <v>67773505</v>
+      </c>
+      <c r="BT4">
+        <v>64890953</v>
+      </c>
+      <c r="BU4">
+        <v>63137268</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="B5">
+        <v>48005126</v>
+      </c>
+      <c r="C5">
+        <v>46715874</v>
+      </c>
+      <c r="D5">
+        <v>53369760</v>
+      </c>
+      <c r="E5">
+        <v>49892184</v>
+      </c>
+      <c r="F5">
+        <v>55246459</v>
+      </c>
+      <c r="G5">
+        <v>52290332</v>
+      </c>
+      <c r="H5">
+        <v>54002475</v>
+      </c>
+      <c r="I5">
+        <v>53962645</v>
+      </c>
+      <c r="J5">
+        <v>55569203</v>
+      </c>
+      <c r="K5">
+        <v>53212279</v>
+      </c>
+      <c r="L5">
+        <v>50591978</v>
+      </c>
+      <c r="M5">
+        <v>51340435</v>
+      </c>
+      <c r="N5" s="1">
+        <v>50527283</v>
+      </c>
+      <c r="O5" s="1">
+        <v>49164894</v>
+      </c>
+      <c r="P5" s="1">
+        <v>55658675</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>50564746</v>
+      </c>
+      <c r="R5" s="1">
+        <v>55571973</v>
+      </c>
+      <c r="S5" s="1">
+        <v>52367288</v>
+      </c>
+      <c r="T5" s="1">
+        <v>54843436</v>
+      </c>
+      <c r="U5" s="1">
+        <v>55305865</v>
+      </c>
+      <c r="V5" s="1">
+        <v>55489377</v>
+      </c>
+      <c r="W5" s="1">
+        <v>54892528</v>
+      </c>
+      <c r="X5" s="1">
+        <v>54028038</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>53514923</v>
+      </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
@@ -1416,7 +2084,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1457,7 +2125,7 @@
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1498,7 +2166,7 @@
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1539,7 +2207,7 @@
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1580,7 +2248,7 @@
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1624,7 +2292,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1665,7 +2333,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1706,7 +2374,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1747,7 +2415,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1788,7 +2456,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1829,7 +2497,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1912,7 +2580,7 @@
       <c r="BI17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>

--- a/final_project/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
+++ b/final_project/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\J_plus_D\예측 코드- Python\예측 코드- Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\Jung_eun\final_project\예측 코드- Python\예측 코드- Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1089,8 +1089,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2059,88 +2059,484 @@
       <c r="Y5" s="1">
         <v>53514923</v>
       </c>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
+      <c r="Z5">
+        <v>53534705</v>
+      </c>
+      <c r="AA5">
+        <v>44731055</v>
+      </c>
+      <c r="AB5">
+        <v>43405136</v>
+      </c>
+      <c r="AC5">
+        <v>46100388</v>
+      </c>
+      <c r="AD5">
+        <v>52922910</v>
+      </c>
+      <c r="AE5">
+        <v>52073105</v>
+      </c>
+      <c r="AF5">
+        <v>53994444</v>
+      </c>
+      <c r="AG5">
+        <v>55855806</v>
+      </c>
+      <c r="AH5">
+        <v>53288272</v>
+      </c>
+      <c r="AI5">
+        <v>56253626</v>
+      </c>
+      <c r="AJ5">
+        <v>52945988</v>
+      </c>
+      <c r="AK5">
+        <v>49409324</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>46128107</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>46763210</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>54527586</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>52215650</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>56841496</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>56028448</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>56844954</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>56758026</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>57987974</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>58405660</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>56263992</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>54611200</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>53818891</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>47550061</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>54541265</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>54315758</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>57469894</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>54451945</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>60484792</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>58399390</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>60815884</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>62485677</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>59495937</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>57726997</v>
+      </c>
+      <c r="BJ5">
+        <v>58240293</v>
+      </c>
+      <c r="BK5">
+        <v>53000244</v>
+      </c>
+      <c r="BL5">
+        <v>61552122</v>
+      </c>
+      <c r="BM5">
+        <v>58143843</v>
+      </c>
+      <c r="BN5">
+        <v>63613522</v>
+      </c>
+      <c r="BO5">
+        <v>56448158</v>
+      </c>
+      <c r="BP5">
+        <v>56430548</v>
+      </c>
+      <c r="BQ5">
+        <v>57432468</v>
+      </c>
+      <c r="BR5">
+        <v>59112530</v>
+      </c>
+      <c r="BS5">
+        <v>60474086</v>
+      </c>
+      <c r="BT5">
+        <v>57081389</v>
+      </c>
+      <c r="BU5">
+        <v>55689959</v>
+      </c>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
+      <c r="B6">
+        <v>26190875</v>
+      </c>
+      <c r="C6">
+        <v>24280471</v>
+      </c>
+      <c r="D6">
+        <v>27820062</v>
+      </c>
+      <c r="E6">
+        <v>25182972</v>
+      </c>
+      <c r="F6">
+        <v>27740944</v>
+      </c>
+      <c r="G6">
+        <v>26695449</v>
+      </c>
+      <c r="H6">
+        <v>27784597</v>
+      </c>
+      <c r="I6">
+        <v>27340736</v>
+      </c>
+      <c r="J6">
+        <v>28160204</v>
+      </c>
+      <c r="K6">
+        <v>27574224</v>
+      </c>
+      <c r="L6">
+        <v>26150973</v>
+      </c>
+      <c r="M6">
+        <v>27945675</v>
+      </c>
+      <c r="N6" s="1">
+        <v>27192469</v>
+      </c>
+      <c r="O6" s="1">
+        <v>24784063</v>
+      </c>
+      <c r="P6" s="1">
+        <v>28426498</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>25366468</v>
+      </c>
+      <c r="R6" s="1">
+        <v>27399345</v>
+      </c>
+      <c r="S6" s="1">
+        <v>26320696</v>
+      </c>
+      <c r="T6" s="1">
+        <v>27541633</v>
+      </c>
+      <c r="U6" s="1">
+        <v>26609959</v>
+      </c>
+      <c r="V6" s="1">
+        <v>26679694</v>
+      </c>
+      <c r="W6" s="1">
+        <v>26978082</v>
+      </c>
+      <c r="X6" s="1">
+        <v>26561616</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>27953994</v>
+      </c>
+      <c r="Z6">
+        <v>26809531</v>
+      </c>
+      <c r="AA6">
+        <v>23400489</v>
+      </c>
+      <c r="AB6">
+        <v>23524634</v>
+      </c>
+      <c r="AC6">
+        <v>22873371</v>
+      </c>
+      <c r="AD6">
+        <v>25661445</v>
+      </c>
+      <c r="AE6">
+        <v>25149535</v>
+      </c>
+      <c r="AF6">
+        <v>24055835</v>
+      </c>
+      <c r="AG6">
+        <v>23532465</v>
+      </c>
+      <c r="AH6">
+        <v>22973143</v>
+      </c>
+      <c r="AI6">
+        <v>25254737</v>
+      </c>
+      <c r="AJ6">
+        <v>24898026</v>
+      </c>
+      <c r="AK6">
+        <v>24008257</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>25438121</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>23948056</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>28588618</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>26715957</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>28442809</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>28211272</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>28773512</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>28015923</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>28893670</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>33029450</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>29598280</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>26313504</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>26608121</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>23414305</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>26748814</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>26794391</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>26294308</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>25351601</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>31810638</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>25398824</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>28505555</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>28541601</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>28175836</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>28163166</v>
+      </c>
+      <c r="BJ6">
+        <v>28123203</v>
+      </c>
+      <c r="BK6">
+        <v>25479783</v>
+      </c>
+      <c r="BL6">
+        <v>29832206</v>
+      </c>
+      <c r="BM6">
+        <v>27318640</v>
+      </c>
+      <c r="BN6">
+        <v>29849593</v>
+      </c>
+      <c r="BO6">
+        <v>25707875</v>
+      </c>
+      <c r="BP6">
+        <v>26027637</v>
+      </c>
+      <c r="BQ6">
+        <v>25560349</v>
+      </c>
+      <c r="BR6">
+        <v>25315276</v>
+      </c>
+      <c r="BS6">
+        <v>26777859</v>
+      </c>
+      <c r="BT6">
+        <v>25973885</v>
+      </c>
+      <c r="BU6">
+        <v>26613982</v>
+      </c>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="B7">
+        <v>41651715</v>
+      </c>
+      <c r="C7">
+        <v>39067242</v>
+      </c>
+      <c r="D7">
+        <v>44567633</v>
+      </c>
+      <c r="E7">
+        <v>41431234</v>
+      </c>
+      <c r="F7">
+        <v>45352950</v>
+      </c>
+      <c r="G7">
+        <v>42928885</v>
+      </c>
+      <c r="H7">
+        <v>44185586</v>
+      </c>
+      <c r="I7">
+        <v>43559316</v>
+      </c>
+      <c r="J7">
+        <v>44053832</v>
+      </c>
+      <c r="K7">
+        <v>43613280</v>
+      </c>
+      <c r="L7">
+        <v>41732220</v>
+      </c>
+      <c r="M7">
+        <v>44428642</v>
+      </c>
+      <c r="N7" s="1">
+        <v>43825622</v>
+      </c>
+      <c r="O7" s="1">
+        <v>41012836</v>
+      </c>
+      <c r="P7" s="1">
+        <v>46271755</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>41757335</v>
+      </c>
+      <c r="R7" s="1">
+        <v>44915546</v>
+      </c>
+      <c r="S7" s="1">
+        <v>43099253</v>
+      </c>
+      <c r="T7" s="1">
+        <v>46000400</v>
+      </c>
+      <c r="U7" s="1">
+        <v>43292520</v>
+      </c>
+      <c r="V7" s="1">
+        <v>44024926</v>
+      </c>
+      <c r="W7" s="1">
+        <v>44386891</v>
+      </c>
+      <c r="X7" s="1">
+        <v>43667890</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45348953</v>
+      </c>
+      <c r="Z7">
+        <v>44554839</v>
+      </c>
+      <c r="AA7">
+        <v>37170255</v>
+      </c>
+      <c r="AB7">
+        <v>34033543</v>
+      </c>
+      <c r="AC7">
+        <v>35984803</v>
+      </c>
+      <c r="AD7">
+        <v>40417492</v>
+      </c>
+      <c r="AE7">
+        <v>40646080</v>
+      </c>
+      <c r="AF7">
+        <v>42565954</v>
+      </c>
+      <c r="AG7">
+        <v>41986648</v>
+      </c>
+      <c r="AH7">
+        <v>41922078</v>
+      </c>
+      <c r="AI7">
+        <v>42983051</v>
+      </c>
+      <c r="AJ7">
+        <v>41919896</v>
+      </c>
+      <c r="AK7">
+        <v>40887575</v>
+      </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>

--- a/final_project/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
+++ b/final_project/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
@@ -558,6 +558,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +619,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BU17"/>
+  <dimension ref="A1:BU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AM24" sqref="AM24"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BN22" sqref="BN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1545,220 +1554,220 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>192364679</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>171686798</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>210242563</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>189516377</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>216436894</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>203677139</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>211707181</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>207659108</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>215060799</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>217099460</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>202720355</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>211875827</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="4">
         <v>209161375</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>182621444</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>229520757</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>193707338</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>205044615</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>199677632</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="4">
         <v>206443180</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="4">
         <v>219582862</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="4">
         <v>207808271</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="4">
         <v>210379380</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="4">
         <v>224200105</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="4">
         <v>220302304</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="4">
         <v>220060091</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="4">
         <v>196867488</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="4">
         <v>202042910</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="4">
         <v>202465211</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="4">
         <v>221067876</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="4">
         <v>216291101</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="4">
         <v>227404269</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="4">
         <v>212920144</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="4">
         <v>212207098</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="4">
         <v>226044036</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="4">
         <v>215467839</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="4">
         <v>200203591</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="4">
         <v>195960342</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="4">
         <v>193211934</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="4">
         <v>230666374</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="4">
         <v>217556454</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="4">
         <v>233946860</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="4">
         <v>232507214</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="4">
         <v>229145891</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="4">
         <v>224290738</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="4">
         <v>229010424</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="4">
         <v>238934806</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="4">
         <v>231165591</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3" s="4">
         <v>233356048</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3" s="4">
         <v>226269568</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="AY3" s="4">
         <v>202358377</v>
       </c>
-      <c r="AZ3" s="1">
+      <c r="AZ3" s="4">
         <v>234218712</v>
       </c>
-      <c r="BA3" s="1">
+      <c r="BA3" s="4">
         <v>239170391</v>
       </c>
-      <c r="BB3" s="1">
+      <c r="BB3" s="4">
         <v>252909502</v>
       </c>
-      <c r="BC3" s="1">
+      <c r="BC3" s="4">
         <v>246383319</v>
       </c>
-      <c r="BD3" s="1">
+      <c r="BD3" s="4">
         <v>256885328</v>
       </c>
-      <c r="BE3" s="1">
+      <c r="BE3" s="4">
         <v>252770616</v>
       </c>
-      <c r="BF3" s="1">
+      <c r="BF3" s="4">
         <v>254043546</v>
       </c>
-      <c r="BG3" s="1">
+      <c r="BG3" s="4">
         <v>260418115</v>
       </c>
-      <c r="BH3" s="1">
+      <c r="BH3" s="4">
         <v>253142084</v>
       </c>
-      <c r="BI3" s="1">
+      <c r="BI3" s="4">
         <v>251897976</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="4">
         <v>245677734</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="4">
         <v>232608482</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="4">
         <v>266872287</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="4">
         <v>247531331</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="4">
         <v>267742281</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="4">
         <v>249295042</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="4">
         <v>254800719</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="4">
         <v>248729084</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="4">
         <v>247742198</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="4">
         <v>259662875</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="4">
         <v>249119146</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="4">
         <v>250957678</v>
       </c>
     </row>
@@ -1766,220 +1775,220 @@
       <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>52748983</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>49410808</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>56243537</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>52474678</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>57713155</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>54252403</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>57240135</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>56880838</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>57323573</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>56395048</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>53633152</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>55939575</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="4">
         <v>53787030</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>51212424</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>58538396</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>52879209</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>57636436</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>53939699</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="4">
         <v>57678625</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="4">
         <v>57500743</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="4">
         <v>56320482</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="4">
         <v>57600015</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="4">
         <v>55997879</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="4">
         <v>58523214</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="4">
         <v>57836115</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="4">
         <v>51268614</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="4">
         <v>51887939</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="4">
         <v>51727638</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="4">
         <v>58375501</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="4">
         <v>56863854</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="4">
         <v>58389905</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="4">
         <v>59373037</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="4">
         <v>57323080</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="4">
         <v>59756313</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="4">
         <v>56506834</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="4">
         <v>54429943</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="4">
         <v>52113221</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="4">
         <v>51143145</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="4">
         <v>58601668</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="4">
         <v>55143659</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="4">
         <v>59327649</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="4">
         <v>58441728</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="4">
         <v>59517121</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="4">
         <v>58044508</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="4">
         <v>60164491</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="4">
         <v>61520444</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="4">
         <v>58641624</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4" s="4">
         <v>58585561</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="4">
         <v>58193858</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="AY4" s="4">
         <v>51225044</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="AZ4" s="4">
         <v>59823831</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="BA4" s="4">
         <v>59434559</v>
       </c>
-      <c r="BB4" s="1">
+      <c r="BB4" s="4">
         <v>65092205</v>
       </c>
-      <c r="BC4" s="1">
+      <c r="BC4" s="4">
         <v>62261487</v>
       </c>
-      <c r="BD4" s="1">
+      <c r="BD4" s="4">
         <v>66092824</v>
       </c>
-      <c r="BE4" s="1">
+      <c r="BE4" s="4">
         <v>64930644</v>
       </c>
-      <c r="BF4" s="1">
+      <c r="BF4" s="4">
         <v>64588750</v>
       </c>
-      <c r="BG4" s="1">
+      <c r="BG4" s="4">
         <v>66559567</v>
       </c>
-      <c r="BH4" s="1">
+      <c r="BH4" s="4">
         <v>63745056</v>
       </c>
-      <c r="BI4" s="1">
+      <c r="BI4" s="4">
         <v>63977462</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="4">
         <v>63769618</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="4">
         <v>57252339</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="4">
         <v>66938292</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="4">
         <v>63164335</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="4">
         <v>67883391</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="4">
         <v>63848833</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="4">
         <v>64786381</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" s="4">
         <v>64924457</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="4">
         <v>65324191</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" s="4">
         <v>67773505</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" s="4">
         <v>64890953</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="4">
         <v>63137268</v>
       </c>
     </row>
@@ -1987,220 +1996,220 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>48005126</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>46715874</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>53369760</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>49892184</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>55246459</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>52290332</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>54002475</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>53962645</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>55569203</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>53212279</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>50591978</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>51340435</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="4">
         <v>50527283</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>49164894</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>55658675</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>50564746</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>55571973</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>52367288</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="4">
         <v>54843436</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="4">
         <v>55305865</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="4">
         <v>55489377</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="4">
         <v>54892528</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="4">
         <v>54028038</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="4">
         <v>53514923</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="4">
         <v>53534705</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="4">
         <v>44731055</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="4">
         <v>43405136</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="4">
         <v>46100388</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="4">
         <v>52922910</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="4">
         <v>52073105</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="4">
         <v>53994444</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="4">
         <v>55855806</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="4">
         <v>53288272</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="4">
         <v>56253626</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="4">
         <v>52945988</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="4">
         <v>49409324</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="4">
         <v>46128107</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="4">
         <v>46763210</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="4">
         <v>54527586</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="4">
         <v>52215650</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="4">
         <v>56841496</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="4">
         <v>56028448</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="4">
         <v>56844954</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="4">
         <v>56758026</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5" s="4">
         <v>57987974</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="4">
         <v>58405660</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="4">
         <v>56263992</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AW5" s="4">
         <v>54611200</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="4">
         <v>53818891</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AY5" s="4">
         <v>47550061</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="AZ5" s="4">
         <v>54541265</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BA5" s="4">
         <v>54315758</v>
       </c>
-      <c r="BB5" s="1">
+      <c r="BB5" s="4">
         <v>57469894</v>
       </c>
-      <c r="BC5" s="1">
+      <c r="BC5" s="4">
         <v>54451945</v>
       </c>
-      <c r="BD5" s="1">
+      <c r="BD5" s="4">
         <v>60484792</v>
       </c>
-      <c r="BE5" s="1">
+      <c r="BE5" s="4">
         <v>58399390</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BF5" s="4">
         <v>60815884</v>
       </c>
-      <c r="BG5" s="1">
+      <c r="BG5" s="4">
         <v>62485677</v>
       </c>
-      <c r="BH5" s="1">
+      <c r="BH5" s="4">
         <v>59495937</v>
       </c>
-      <c r="BI5" s="1">
+      <c r="BI5" s="4">
         <v>57726997</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="4">
         <v>58240293</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="4">
         <v>53000244</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="4">
         <v>61552122</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="4">
         <v>58143843</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="4">
         <v>63613522</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="4">
         <v>56448158</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="4">
         <v>56430548</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="4">
         <v>57432468</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="4">
         <v>59112530</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="4">
         <v>60474086</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" s="4">
         <v>57081389</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="4">
         <v>55689959</v>
       </c>
     </row>
@@ -2208,220 +2217,220 @@
       <c r="A6" t="s">
         <v>71</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>26190875</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>24280471</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>27820062</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>25182972</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>27740944</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>26695449</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>27784597</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>27340736</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>28160204</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>27574224</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>26150973</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>27945675</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="4">
         <v>27192469</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>24784063</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>28426498</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>25366468</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>27399345</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>26320696</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="4">
         <v>27541633</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="4">
         <v>26609959</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="4">
         <v>26679694</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="4">
         <v>26978082</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="4">
         <v>26561616</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="4">
         <v>27953994</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="4">
         <v>26809531</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="4">
         <v>23400489</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="4">
         <v>23524634</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="4">
         <v>22873371</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="4">
         <v>25661445</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="4">
         <v>25149535</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="4">
         <v>24055835</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="4">
         <v>23532465</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="4">
         <v>22973143</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="4">
         <v>25254737</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="4">
         <v>24898026</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="4">
         <v>24008257</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="4">
         <v>25438121</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="4">
         <v>23948056</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="4">
         <v>28588618</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="4">
         <v>26715957</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="4">
         <v>28442809</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="4">
         <v>28211272</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="4">
         <v>28773512</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="4">
         <v>28015923</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="4">
         <v>28893670</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="4">
         <v>33029450</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="4">
         <v>29598280</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AW6" s="4">
         <v>26313504</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AX6" s="4">
         <v>26608121</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AY6" s="4">
         <v>23414305</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="AZ6" s="4">
         <v>26748814</v>
       </c>
-      <c r="BA6" s="1">
+      <c r="BA6" s="4">
         <v>26794391</v>
       </c>
-      <c r="BB6" s="1">
+      <c r="BB6" s="4">
         <v>26294308</v>
       </c>
-      <c r="BC6" s="1">
+      <c r="BC6" s="4">
         <v>25351601</v>
       </c>
-      <c r="BD6" s="1">
+      <c r="BD6" s="4">
         <v>31810638</v>
       </c>
-      <c r="BE6" s="1">
+      <c r="BE6" s="4">
         <v>25398824</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BF6" s="4">
         <v>28505555</v>
       </c>
-      <c r="BG6" s="1">
+      <c r="BG6" s="4">
         <v>28541601</v>
       </c>
-      <c r="BH6" s="1">
+      <c r="BH6" s="4">
         <v>28175836</v>
       </c>
-      <c r="BI6" s="1">
+      <c r="BI6" s="4">
         <v>28163166</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="4">
         <v>28123203</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="4">
         <v>25479783</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="4">
         <v>29832206</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="4">
         <v>27318640</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="4">
         <v>29849593</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="4">
         <v>25707875</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="4">
         <v>26027637</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" s="4">
         <v>25560349</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" s="4">
         <v>25315276</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" s="4">
         <v>26777859</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" s="4">
         <v>25973885</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" s="4">
         <v>26613982</v>
       </c>
     </row>
@@ -2429,555 +2438,4804 @@
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>41651715</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>39067242</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>44567633</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>41431234</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>45352950</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>42928885</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>44185586</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>43559316</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>44053832</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>43613280</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>41732220</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>44428642</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="4">
         <v>43825622</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>41012836</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>46271755</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>41757335</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>44915546</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>43099253</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="4">
         <v>46000400</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="4">
         <v>43292520</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="4">
         <v>44024926</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="4">
         <v>44386891</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="4">
         <v>43667890</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="4">
         <v>45348953</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="4">
         <v>44554839</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="4">
         <v>37170255</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="4">
         <v>34033543</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="4">
         <v>35984803</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="4">
         <v>40417492</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="4">
         <v>40646080</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="4">
         <v>42565954</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="4">
         <v>41986648</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="4">
         <v>41922078</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="4">
         <v>42983051</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="4">
         <v>41919896</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="4">
         <v>40887575</v>
       </c>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
+      <c r="AL7" s="4">
+        <v>38485714</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>37095091</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>43222125</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>40684959</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>43631405</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>42573611</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>43398456</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>42639724</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>43311983</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>44254667</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>43294781</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>43890205</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>42505604</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>38004544</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>43653562</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>42114727</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>43513520</v>
+      </c>
+      <c r="BC7" s="4">
+        <v>42339343</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>46901705</v>
+      </c>
+      <c r="BE7" s="4">
+        <v>43845743</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>46695879</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>47193030</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>46358824</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>46778004</v>
+      </c>
+      <c r="BJ7" s="4">
+        <v>46513608</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>42605274</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>48716950</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>45263556</v>
+      </c>
+      <c r="BN7" s="4">
+        <v>47891093</v>
+      </c>
+      <c r="BO7" s="4">
+        <v>42083938</v>
+      </c>
+      <c r="BP7" s="4">
+        <v>43359240</v>
+      </c>
+      <c r="BQ7" s="4">
+        <v>42739954</v>
+      </c>
+      <c r="BR7" s="4">
+        <v>43482577</v>
+      </c>
+      <c r="BS7" s="4">
+        <v>46313650</v>
+      </c>
+      <c r="BT7" s="4">
+        <v>45047868</v>
+      </c>
+      <c r="BU7" s="4">
+        <v>45135761</v>
+      </c>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
+      <c r="B8" s="4">
+        <v>26993584</v>
+      </c>
+      <c r="C8" s="4">
+        <v>24681496</v>
+      </c>
+      <c r="D8" s="4">
+        <v>29667450</v>
+      </c>
+      <c r="E8" s="4">
+        <v>26033748</v>
+      </c>
+      <c r="F8" s="4">
+        <v>29212506</v>
+      </c>
+      <c r="G8" s="4">
+        <v>28165510</v>
+      </c>
+      <c r="H8" s="4">
+        <v>28980467</v>
+      </c>
+      <c r="I8" s="4">
+        <v>28272748</v>
+      </c>
+      <c r="J8" s="4">
+        <v>29004106</v>
+      </c>
+      <c r="K8" s="4">
+        <v>28604404</v>
+      </c>
+      <c r="L8" s="4">
+        <v>27017229</v>
+      </c>
+      <c r="M8" s="4">
+        <v>28708306</v>
+      </c>
+      <c r="N8" s="4">
+        <v>27958353</v>
+      </c>
+      <c r="O8" s="4">
+        <v>25499802</v>
+      </c>
+      <c r="P8" s="4">
+        <v>30300832</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>26266307</v>
+      </c>
+      <c r="R8" s="4">
+        <v>29116495</v>
+      </c>
+      <c r="S8" s="4">
+        <v>27715848</v>
+      </c>
+      <c r="T8" s="4">
+        <v>28774394</v>
+      </c>
+      <c r="U8" s="4">
+        <v>27736430</v>
+      </c>
+      <c r="V8" s="4">
+        <v>28581252</v>
+      </c>
+      <c r="W8" s="4">
+        <v>28577610</v>
+      </c>
+      <c r="X8" s="4">
+        <v>28531577</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>29342761</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>28362398</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>25061307</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>24373982</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>24108321</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>27627005</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>26571570</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>26387419</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>26386703</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>26145326</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>27225673</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>27268973</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>25601266</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>24533271</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>23671980</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>28308769</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>25449022</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>28050046</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>27386941</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>26955400</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>25911405</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>27206839</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>28062033</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>27840889</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>27848816</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>27192060</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>24168916</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>28440401</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>27253435</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>30628135</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>29364167</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>30005556</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>29323351</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>30376935</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>30551554</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>30120639</v>
+      </c>
+      <c r="BI8" s="4">
+        <v>30340305</v>
+      </c>
+      <c r="BJ8" s="4">
+        <v>29757491</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>27705005</v>
+      </c>
+      <c r="BL8" s="4">
+        <v>31926115</v>
+      </c>
+      <c r="BM8" s="4">
+        <v>29327883</v>
+      </c>
+      <c r="BN8" s="4">
+        <v>31637760</v>
+      </c>
+      <c r="BO8" s="4">
+        <v>27479133</v>
+      </c>
+      <c r="BP8" s="4">
+        <v>27309099</v>
+      </c>
+      <c r="BQ8" s="4">
+        <v>27253104</v>
+      </c>
+      <c r="BR8" s="4">
+        <v>26853957</v>
+      </c>
+      <c r="BS8" s="4">
+        <v>29117029</v>
+      </c>
+      <c r="BT8" s="4">
+        <v>28387704</v>
+      </c>
+      <c r="BU8" s="4">
+        <v>28724292</v>
+      </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
+      <c r="B9" s="4">
+        <v>49564246</v>
+      </c>
+      <c r="C9" s="4">
+        <v>46619998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>52636281</v>
+      </c>
+      <c r="E9" s="4">
+        <v>47389219</v>
+      </c>
+      <c r="F9" s="4">
+        <v>53465722</v>
+      </c>
+      <c r="G9" s="4">
+        <v>50945213</v>
+      </c>
+      <c r="H9" s="4">
+        <v>52834844</v>
+      </c>
+      <c r="I9" s="4">
+        <v>54326641</v>
+      </c>
+      <c r="J9" s="4">
+        <v>53596324</v>
+      </c>
+      <c r="K9" s="4">
+        <v>52100501</v>
+      </c>
+      <c r="L9" s="4">
+        <v>48858168</v>
+      </c>
+      <c r="M9" s="4">
+        <v>52151210</v>
+      </c>
+      <c r="N9" s="4">
+        <v>50810877</v>
+      </c>
+      <c r="O9" s="4">
+        <v>47854773</v>
+      </c>
+      <c r="P9" s="4">
+        <v>54192826</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>47150625</v>
+      </c>
+      <c r="R9" s="4">
+        <v>53367488</v>
+      </c>
+      <c r="S9" s="4">
+        <v>50416186</v>
+      </c>
+      <c r="T9" s="4">
+        <v>54569410</v>
+      </c>
+      <c r="U9" s="4">
+        <v>52865312</v>
+      </c>
+      <c r="V9" s="4">
+        <v>53156511</v>
+      </c>
+      <c r="W9" s="4">
+        <v>53410436</v>
+      </c>
+      <c r="X9" s="4">
+        <v>52911168</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>56445669</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>53715880</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>47050571</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>45681579</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>46931456</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>51288902</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>50960024</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>53039166</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>52406494</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>50748060</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>51568532</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>51943944</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>47983577</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>46163458</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>45680455</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>53269701</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>48049422</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>53289956</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>52104123</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>52553287</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>50436260</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>52009277</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>53589942</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>52109663</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>53212926</v>
+      </c>
+      <c r="AX9" s="4">
+        <v>52735196</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>47160337</v>
+      </c>
+      <c r="AZ9" s="4">
+        <v>55414105</v>
+      </c>
+      <c r="BA9" s="4">
+        <v>53338248</v>
+      </c>
+      <c r="BB9" s="4">
+        <v>60122288</v>
+      </c>
+      <c r="BC9" s="4">
+        <v>58621524</v>
+      </c>
+      <c r="BD9" s="4">
+        <v>60900302</v>
+      </c>
+      <c r="BE9" s="4">
+        <v>60380624</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>59426110</v>
+      </c>
+      <c r="BG9" s="4">
+        <v>60840110</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>58779331</v>
+      </c>
+      <c r="BI9" s="4">
+        <v>60649963</v>
+      </c>
+      <c r="BJ9" s="4">
+        <v>60294939</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>54399071</v>
+      </c>
+      <c r="BL9" s="4">
+        <v>62034060</v>
+      </c>
+      <c r="BM9" s="4">
+        <v>57501913</v>
+      </c>
+      <c r="BN9" s="4">
+        <v>62222345</v>
+      </c>
+      <c r="BO9" s="4">
+        <v>56051129</v>
+      </c>
+      <c r="BP9" s="4">
+        <v>57715667</v>
+      </c>
+      <c r="BQ9" s="4">
+        <v>57924247</v>
+      </c>
+      <c r="BR9" s="4">
+        <v>57928138</v>
+      </c>
+      <c r="BS9" s="4">
+        <v>60885484</v>
+      </c>
+      <c r="BT9" s="4">
+        <v>59162487</v>
+      </c>
+      <c r="BU9" s="4">
+        <v>58729966</v>
+      </c>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10">
-        <v>48209017</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
+      <c r="B10" s="4">
+        <v>178402416</v>
+      </c>
+      <c r="C10" s="4">
+        <v>155990866</v>
+      </c>
+      <c r="D10" s="4">
+        <v>192961028</v>
+      </c>
+      <c r="E10" s="4">
+        <v>174645535</v>
+      </c>
+      <c r="F10" s="4">
+        <v>190270110</v>
+      </c>
+      <c r="G10" s="4">
+        <v>186067977</v>
+      </c>
+      <c r="H10" s="4">
+        <v>197074634</v>
+      </c>
+      <c r="I10" s="4">
+        <v>190428032</v>
+      </c>
+      <c r="J10" s="4">
+        <v>186722338</v>
+      </c>
+      <c r="K10" s="4">
+        <v>191211149</v>
+      </c>
+      <c r="L10" s="4">
+        <v>176627652</v>
+      </c>
+      <c r="M10" s="4">
+        <v>184329749</v>
+      </c>
+      <c r="N10" s="4">
+        <v>181975366</v>
+      </c>
+      <c r="O10" s="4">
+        <v>157010725</v>
+      </c>
+      <c r="P10" s="4">
+        <v>197615369</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>164797588</v>
+      </c>
+      <c r="R10" s="4">
+        <v>176394430</v>
+      </c>
+      <c r="S10" s="4">
+        <v>169244842</v>
+      </c>
+      <c r="T10" s="4">
+        <v>177971446</v>
+      </c>
+      <c r="U10" s="4">
+        <v>188345606</v>
+      </c>
+      <c r="V10" s="4">
+        <v>179435388</v>
+      </c>
+      <c r="W10" s="4">
+        <v>182282234</v>
+      </c>
+      <c r="X10" s="4">
+        <v>199082342</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>192254622</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>186571260</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>166500263</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>160558555</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>163317486</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>176344640</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>171428273</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>181200444</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>166771952</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>161694355</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>174923516</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>170408261</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>151440974</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>153626089</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>149937227</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>181573568</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>168816171</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>181967963</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>182754151</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>174621489</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>171504109</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>174252419</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>183046960</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>183115402</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>182251098</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>177830994</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>157128817</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>183433644</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>186067316</v>
+      </c>
+      <c r="BB10" s="4">
+        <v>196993968</v>
+      </c>
+      <c r="BC10" s="4">
+        <v>191846647</v>
+      </c>
+      <c r="BD10" s="4">
+        <v>199551563</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>195369399</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>196807652</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>200338365</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>196799908</v>
+      </c>
+      <c r="BI10" s="4">
+        <v>197039780</v>
+      </c>
+      <c r="BJ10" s="4">
+        <v>190330535</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>181818372</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>204647253</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>185572672</v>
+      </c>
+      <c r="BN10" s="4">
+        <v>203635888</v>
+      </c>
+      <c r="BO10" s="4">
+        <v>185821697</v>
+      </c>
+      <c r="BP10" s="4">
+        <v>187977409</v>
+      </c>
+      <c r="BQ10" s="4">
+        <v>183665672</v>
+      </c>
+      <c r="BR10" s="4">
+        <v>181739135</v>
+      </c>
+      <c r="BS10" s="4">
+        <v>189151283</v>
+      </c>
+      <c r="BT10" s="4">
+        <v>185542699</v>
+      </c>
+      <c r="BU10" s="4">
+        <v>186347595</v>
+      </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
+      <c r="B11" s="4">
+        <v>18224716</v>
+      </c>
+      <c r="C11" s="4">
+        <v>16479184</v>
+      </c>
+      <c r="D11" s="4">
+        <v>19031440</v>
+      </c>
+      <c r="E11" s="4">
+        <v>17302767</v>
+      </c>
+      <c r="F11" s="4">
+        <v>19256204</v>
+      </c>
+      <c r="G11" s="4">
+        <v>18259144</v>
+      </c>
+      <c r="H11" s="4">
+        <v>19495760</v>
+      </c>
+      <c r="I11" s="4">
+        <v>18796505</v>
+      </c>
+      <c r="J11" s="4">
+        <v>18330418</v>
+      </c>
+      <c r="K11" s="4">
+        <v>18841674</v>
+      </c>
+      <c r="L11" s="4">
+        <v>17507934</v>
+      </c>
+      <c r="M11" s="4">
+        <v>18635936</v>
+      </c>
+      <c r="N11" s="4">
+        <v>18379034</v>
+      </c>
+      <c r="O11" s="4">
+        <v>16870731</v>
+      </c>
+      <c r="P11" s="4">
+        <v>19599631</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>17175395</v>
+      </c>
+      <c r="R11" s="4">
+        <v>19132012</v>
+      </c>
+      <c r="S11" s="4">
+        <v>18164690</v>
+      </c>
+      <c r="T11" s="4">
+        <v>20186504</v>
+      </c>
+      <c r="U11" s="4">
+        <v>18663627</v>
+      </c>
+      <c r="V11" s="4">
+        <v>18417275</v>
+      </c>
+      <c r="W11" s="4">
+        <v>19051047</v>
+      </c>
+      <c r="X11" s="4">
+        <v>18424476</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>19806172</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>18760580</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>17080353</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>16797097</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>16711152</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>18781449</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>18607090</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>19178594</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>19028195</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>18837997</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>18903088</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>18632842</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>17569407</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>16997837</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>16253881</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>19016816</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>17250682</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>18043421</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>18357218</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>18912782</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>18523572</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>18827240</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>19177530</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>18689676</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>19030170</v>
+      </c>
+      <c r="AX11" s="4">
+        <v>18739188</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>16913586</v>
+      </c>
+      <c r="AZ11" s="4">
+        <v>20074922</v>
+      </c>
+      <c r="BA11" s="4">
+        <v>19443664</v>
+      </c>
+      <c r="BB11" s="4">
+        <v>21536532</v>
+      </c>
+      <c r="BC11" s="4">
+        <v>20900501</v>
+      </c>
+      <c r="BD11" s="4">
+        <v>21713065</v>
+      </c>
+      <c r="BE11" s="4">
+        <v>21338210</v>
+      </c>
+      <c r="BF11" s="4">
+        <v>21284202</v>
+      </c>
+      <c r="BG11" s="4">
+        <v>21978342</v>
+      </c>
+      <c r="BH11" s="4">
+        <v>21024087</v>
+      </c>
+      <c r="BI11" s="4">
+        <v>21402564</v>
+      </c>
+      <c r="BJ11" s="4">
+        <v>21388055</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>19388519</v>
+      </c>
+      <c r="BL11" s="4">
+        <v>22147482</v>
+      </c>
+      <c r="BM11" s="4">
+        <v>20896098</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>22444427</v>
+      </c>
+      <c r="BO11" s="4">
+        <v>20909334</v>
+      </c>
+      <c r="BP11" s="4">
+        <v>21350519</v>
+      </c>
+      <c r="BQ11" s="4">
+        <v>21213115</v>
+      </c>
+      <c r="BR11" s="4">
+        <v>21344490</v>
+      </c>
+      <c r="BS11" s="4">
+        <v>22160324</v>
+      </c>
+      <c r="BT11" s="4">
+        <v>21205652</v>
+      </c>
+      <c r="BU11" s="4">
+        <v>20774102</v>
+      </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
+      <c r="B12" s="4">
+        <v>39854496</v>
+      </c>
+      <c r="C12" s="4">
+        <v>38376294</v>
+      </c>
+      <c r="D12" s="4">
+        <v>46824479</v>
+      </c>
+      <c r="E12" s="4">
+        <v>41097921</v>
+      </c>
+      <c r="F12" s="4">
+        <v>46711972</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44233635</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45841927</v>
+      </c>
+      <c r="I12" s="4">
+        <v>44960275</v>
+      </c>
+      <c r="J12" s="4">
+        <v>49353696</v>
+      </c>
+      <c r="K12" s="4">
+        <v>49134251</v>
+      </c>
+      <c r="L12" s="4">
+        <v>42659328</v>
+      </c>
+      <c r="M12" s="4">
+        <v>49179674</v>
+      </c>
+      <c r="N12" s="4">
+        <v>48394671</v>
+      </c>
+      <c r="O12" s="4">
+        <v>42264682</v>
+      </c>
+      <c r="P12" s="4">
+        <v>51145234</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>44383691</v>
+      </c>
+      <c r="R12" s="4">
+        <v>46654037</v>
+      </c>
+      <c r="S12" s="4">
+        <v>45547984</v>
+      </c>
+      <c r="T12" s="4">
+        <v>47036932</v>
+      </c>
+      <c r="U12" s="4">
+        <v>49390861</v>
+      </c>
+      <c r="V12" s="4">
+        <v>46723654</v>
+      </c>
+      <c r="W12" s="4">
+        <v>47634728</v>
+      </c>
+      <c r="X12" s="4">
+        <v>50822790</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>50261258</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>50170420</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>43482684</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>44616818</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>43026395</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>46389750</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>45080335</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>48339546</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>45801601</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>45263490</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>49320571</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>45976447</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>42739431</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>42459619</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>41955654</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>48503042</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>45993959</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>49798612</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>49543032</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>48876016</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>47618394</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>48858984</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>50688836</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>48646265</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>48919290</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>48038376</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>42954081</v>
+      </c>
+      <c r="AZ12" s="4">
+        <v>48545823</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>50932825</v>
+      </c>
+      <c r="BB12" s="4">
+        <v>53597723</v>
+      </c>
+      <c r="BC12" s="4">
+        <v>52251903</v>
+      </c>
+      <c r="BD12" s="4">
+        <v>54845194</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>53472553</v>
+      </c>
+      <c r="BF12" s="4">
+        <v>54221382</v>
+      </c>
+      <c r="BG12" s="4">
+        <v>55092698</v>
+      </c>
+      <c r="BH12" s="4">
+        <v>53194454</v>
+      </c>
+      <c r="BI12" s="4">
+        <v>54271451</v>
+      </c>
+      <c r="BJ12" s="4">
+        <v>53513633</v>
+      </c>
+      <c r="BK12" s="4">
+        <v>50153413</v>
+      </c>
+      <c r="BL12" s="4">
+        <v>57595215</v>
+      </c>
+      <c r="BM12" s="4">
+        <v>53248392</v>
+      </c>
+      <c r="BN12" s="4">
+        <v>59051542</v>
+      </c>
+      <c r="BO12" s="4">
+        <v>54308136</v>
+      </c>
+      <c r="BP12" s="4">
+        <v>56354397</v>
+      </c>
+      <c r="BQ12" s="4">
+        <v>55659266</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>55534437</v>
+      </c>
+      <c r="BS12" s="4">
+        <v>57740433</v>
+      </c>
+      <c r="BT12" s="4">
+        <v>55058894</v>
+      </c>
+      <c r="BU12" s="4">
+        <v>56188835</v>
+      </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
+      <c r="B13" s="4">
+        <v>28790654</v>
+      </c>
+      <c r="C13" s="4">
+        <v>28934163</v>
+      </c>
+      <c r="D13" s="4">
+        <v>32683652</v>
+      </c>
+      <c r="E13" s="4">
+        <v>31335591</v>
+      </c>
+      <c r="F13" s="4">
+        <v>34476119</v>
+      </c>
+      <c r="G13" s="4">
+        <v>32121661</v>
+      </c>
+      <c r="H13" s="4">
+        <v>33735702</v>
+      </c>
+      <c r="I13" s="4">
+        <v>34375316</v>
+      </c>
+      <c r="J13" s="4">
+        <v>35978384</v>
+      </c>
+      <c r="K13" s="4">
+        <v>33768561</v>
+      </c>
+      <c r="L13" s="4">
+        <v>32014705</v>
+      </c>
+      <c r="M13" s="4">
+        <v>32402450</v>
+      </c>
+      <c r="N13" s="4">
+        <v>31566023</v>
+      </c>
+      <c r="O13" s="4">
+        <v>30836196</v>
+      </c>
+      <c r="P13" s="4">
+        <v>34806428</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>32233036</v>
+      </c>
+      <c r="R13" s="4">
+        <v>35174231</v>
+      </c>
+      <c r="S13" s="4">
+        <v>33129861</v>
+      </c>
+      <c r="T13" s="4">
+        <v>33820218</v>
+      </c>
+      <c r="U13" s="4">
+        <v>35335486</v>
+      </c>
+      <c r="V13" s="4">
+        <v>34529158</v>
+      </c>
+      <c r="W13" s="4">
+        <v>34986405</v>
+      </c>
+      <c r="X13" s="4">
+        <v>34228538</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>34389418</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>34087348</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>29450714</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>30913750</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>31149298</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>35222317</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>33596017</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>34245712</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>34814089</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>32830010</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>36333440</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>33431704</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>32865783</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>32065475</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>32336652</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>37429298</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>35892375</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>38372819</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>37831804</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>38454167</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>38721225</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>39421972</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>39844443</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>38177894</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>37564425</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>37053865</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>32530278</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>37457582</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>37909499</v>
+      </c>
+      <c r="BB13" s="4">
+        <v>38324695</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>36382599</v>
+      </c>
+      <c r="BD13" s="4">
+        <v>45101336</v>
+      </c>
+      <c r="BE13" s="4">
+        <v>38848239</v>
+      </c>
+      <c r="BF13" s="4">
+        <v>41852078</v>
+      </c>
+      <c r="BG13" s="4">
+        <v>42663963</v>
+      </c>
+      <c r="BH13" s="4">
+        <v>41022411</v>
+      </c>
+      <c r="BI13" s="4">
+        <v>39347463</v>
+      </c>
+      <c r="BJ13" s="4">
+        <v>39893679</v>
+      </c>
+      <c r="BK13" s="4">
+        <v>35983906</v>
+      </c>
+      <c r="BL13" s="4">
+        <v>42629995</v>
+      </c>
+      <c r="BM13" s="4">
+        <v>41175853</v>
+      </c>
+      <c r="BN13" s="4">
+        <v>43847658</v>
+      </c>
+      <c r="BO13" s="4">
+        <v>40816466</v>
+      </c>
+      <c r="BP13" s="4">
+        <v>40895400</v>
+      </c>
+      <c r="BQ13" s="4">
+        <v>41884763</v>
+      </c>
+      <c r="BR13" s="4">
+        <v>40782164</v>
+      </c>
+      <c r="BS13" s="4">
+        <v>44087781</v>
+      </c>
+      <c r="BT13" s="4">
+        <v>40408040</v>
+      </c>
+      <c r="BU13" s="4">
+        <v>40792738</v>
+      </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
+      <c r="B14" s="4">
+        <v>30793960</v>
+      </c>
+      <c r="C14" s="4">
+        <v>30114104</v>
+      </c>
+      <c r="D14" s="4">
+        <v>33716310</v>
+      </c>
+      <c r="E14" s="4">
+        <v>31588459</v>
+      </c>
+      <c r="F14" s="4">
+        <v>34978696</v>
+      </c>
+      <c r="G14" s="4">
+        <v>33001880</v>
+      </c>
+      <c r="H14" s="4">
+        <v>34229615</v>
+      </c>
+      <c r="I14" s="4">
+        <v>34904555</v>
+      </c>
+      <c r="J14" s="4">
+        <v>36051844</v>
+      </c>
+      <c r="K14" s="4">
+        <v>34524450</v>
+      </c>
+      <c r="L14" s="4">
+        <v>33390090</v>
+      </c>
+      <c r="M14" s="4">
+        <v>33481452</v>
+      </c>
+      <c r="N14" s="4">
+        <v>32774689</v>
+      </c>
+      <c r="O14" s="4">
+        <v>31267028</v>
+      </c>
+      <c r="P14" s="4">
+        <v>34873556</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>32084210</v>
+      </c>
+      <c r="R14" s="4">
+        <v>35408986</v>
+      </c>
+      <c r="S14" s="4">
+        <v>33388823</v>
+      </c>
+      <c r="T14" s="4">
+        <v>34085663</v>
+      </c>
+      <c r="U14" s="4">
+        <v>34938585</v>
+      </c>
+      <c r="V14" s="4">
+        <v>34974729</v>
+      </c>
+      <c r="W14" s="4">
+        <v>34857693</v>
+      </c>
+      <c r="X14" s="4">
+        <v>34845011</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>34844093</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>34356033</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>29752510</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>30643532</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>30330370</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>34454632</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>33306431</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>34726690</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>34146612</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>32724796</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>35611087</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>33985329</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>31144597</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>32245764</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>32058838</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>36968363</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>34878299</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>38231392</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>37395853</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>38387375</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>38274963</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>38395516</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>39183540</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>37956757</v>
+      </c>
+      <c r="AW14" s="4">
+        <v>37131705</v>
+      </c>
+      <c r="AX14" s="4">
+        <v>36756577</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>32259211</v>
+      </c>
+      <c r="AZ14" s="4">
+        <v>36825440</v>
+      </c>
+      <c r="BA14" s="4">
+        <v>36039788</v>
+      </c>
+      <c r="BB14" s="4">
+        <v>36794140</v>
+      </c>
+      <c r="BC14" s="4">
+        <v>35096134</v>
+      </c>
+      <c r="BD14" s="4">
+        <v>43499583</v>
+      </c>
+      <c r="BE14" s="4">
+        <v>37104158</v>
+      </c>
+      <c r="BF14" s="4">
+        <v>40526943</v>
+      </c>
+      <c r="BG14" s="4">
+        <v>41183138</v>
+      </c>
+      <c r="BH14" s="4">
+        <v>40093678</v>
+      </c>
+      <c r="BI14" s="4">
+        <v>38406768</v>
+      </c>
+      <c r="BJ14" s="4">
+        <v>38966715</v>
+      </c>
+      <c r="BK14" s="4">
+        <v>35348123</v>
+      </c>
+      <c r="BL14" s="4">
+        <v>41002467</v>
+      </c>
+      <c r="BM14" s="4">
+        <v>39114675</v>
+      </c>
+      <c r="BN14" s="4">
+        <v>42091283</v>
+      </c>
+      <c r="BO14" s="4">
+        <v>38128933</v>
+      </c>
+      <c r="BP14" s="4">
+        <v>38293393</v>
+      </c>
+      <c r="BQ14" s="4">
+        <v>38911614</v>
+      </c>
+      <c r="BR14" s="4">
+        <v>37891113</v>
+      </c>
+      <c r="BS14" s="4">
+        <v>40824365</v>
+      </c>
+      <c r="BT14" s="4">
+        <v>38927475</v>
+      </c>
+      <c r="BU14" s="4">
+        <v>38412153</v>
+      </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
+      <c r="B15" s="4">
+        <v>17474882</v>
+      </c>
+      <c r="C15" s="4">
+        <v>15477205</v>
+      </c>
+      <c r="D15" s="4">
+        <v>18318104</v>
+      </c>
+      <c r="E15" s="4">
+        <v>17929874</v>
+      </c>
+      <c r="F15" s="4">
+        <v>18909492</v>
+      </c>
+      <c r="G15" s="4">
+        <v>18393714</v>
+      </c>
+      <c r="H15" s="4">
+        <v>19299590</v>
+      </c>
+      <c r="I15" s="4">
+        <v>19627688</v>
+      </c>
+      <c r="J15" s="4">
+        <v>18426378</v>
+      </c>
+      <c r="K15" s="4">
+        <v>19128136</v>
+      </c>
+      <c r="L15" s="4">
+        <v>17982437</v>
+      </c>
+      <c r="M15" s="4">
+        <v>18242467</v>
+      </c>
+      <c r="N15" s="4">
+        <v>18543492</v>
+      </c>
+      <c r="O15" s="4">
+        <v>16673172</v>
+      </c>
+      <c r="P15" s="4">
+        <v>19128868</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>18071530</v>
+      </c>
+      <c r="R15" s="4">
+        <v>19052506</v>
+      </c>
+      <c r="S15" s="4">
+        <v>18141485</v>
+      </c>
+      <c r="T15" s="4">
+        <v>18999535</v>
+      </c>
+      <c r="U15" s="4">
+        <v>19526743</v>
+      </c>
+      <c r="V15" s="4">
+        <v>17819251</v>
+      </c>
+      <c r="W15" s="4">
+        <v>19388116</v>
+      </c>
+      <c r="X15" s="4">
+        <v>18589243</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>19148555</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>18126997</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>15554145</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>15918435</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>15450782</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>17402359</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>17215281</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>18639518</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>18760940</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>16984536</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>18884851</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>18501821</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>17290923</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>17598747</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>17851462</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>21122680</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>20751059</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>21657410</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>21333652</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>22043807</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>21039312</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>20311882</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>22664073</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>21937314</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>22011775</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>22166905</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>19631988</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>21093570</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>21563318</v>
+      </c>
+      <c r="BB15" s="4">
+        <v>21207701</v>
+      </c>
+      <c r="BC15" s="4">
+        <v>20449842</v>
+      </c>
+      <c r="BD15" s="4">
+        <v>24672405</v>
+      </c>
+      <c r="BE15" s="4">
+        <v>22069010</v>
+      </c>
+      <c r="BF15" s="4">
+        <v>21627937</v>
+      </c>
+      <c r="BG15" s="4">
+        <v>23536163</v>
+      </c>
+      <c r="BH15" s="4">
+        <v>22430549</v>
+      </c>
+      <c r="BI15" s="4">
+        <v>22106337</v>
+      </c>
+      <c r="BJ15" s="4">
+        <v>22007107</v>
+      </c>
+      <c r="BK15" s="4">
+        <v>20438686</v>
+      </c>
+      <c r="BL15" s="4">
+        <v>22930647</v>
+      </c>
+      <c r="BM15" s="4">
+        <v>22018023</v>
+      </c>
+      <c r="BN15" s="4">
+        <v>23136864</v>
+      </c>
+      <c r="BO15" s="4">
+        <v>22275987</v>
+      </c>
+      <c r="BP15" s="4">
+        <v>22773060</v>
+      </c>
+      <c r="BQ15" s="4">
+        <v>23368681</v>
+      </c>
+      <c r="BR15" s="4">
+        <v>21211747</v>
+      </c>
+      <c r="BS15" s="4">
+        <v>23423247</v>
+      </c>
+      <c r="BT15" s="4">
+        <v>21895254</v>
+      </c>
+      <c r="BU15" s="4">
+        <v>22080340</v>
+      </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
+      <c r="B16" s="4">
+        <v>35691634</v>
+      </c>
+      <c r="C16" s="4">
+        <v>34401324</v>
+      </c>
+      <c r="D16" s="4">
+        <v>40935252</v>
+      </c>
+      <c r="E16" s="4">
+        <v>37556105</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42032730</v>
+      </c>
+      <c r="G16" s="4">
+        <v>39799044</v>
+      </c>
+      <c r="H16" s="4">
+        <v>40823926</v>
+      </c>
+      <c r="I16" s="4">
+        <v>41069666</v>
+      </c>
+      <c r="J16" s="4">
+        <v>42840880</v>
+      </c>
+      <c r="K16" s="4">
+        <v>41461839</v>
+      </c>
+      <c r="L16" s="4">
+        <v>38799596</v>
+      </c>
+      <c r="M16" s="4">
+        <v>39184578</v>
+      </c>
+      <c r="N16" s="4">
+        <v>37904704</v>
+      </c>
+      <c r="O16" s="4">
+        <v>36294905</v>
+      </c>
+      <c r="P16" s="4">
+        <v>42902294</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>39294370</v>
+      </c>
+      <c r="R16" s="4">
+        <v>42994429</v>
+      </c>
+      <c r="S16" s="4">
+        <v>40812599</v>
+      </c>
+      <c r="T16" s="4">
+        <v>41856593</v>
+      </c>
+      <c r="U16" s="4">
+        <v>42243104</v>
+      </c>
+      <c r="V16" s="4">
+        <v>42678652</v>
+      </c>
+      <c r="W16" s="4">
+        <v>43346101</v>
+      </c>
+      <c r="X16" s="4">
+        <v>41935684</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>42216498</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>41310742</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>35198597</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>36425326</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>37518809</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>43001247</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>41873699</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>42621584</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>42342934</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>41813060</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>44224556</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>41581799</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>38584763</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>36228829</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>36234676</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>43162375</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>41588458</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>44737987</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>43976096</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>44066339</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>44247676</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>45278045</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>46593353</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>44180093</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>43030513</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>42122236</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>37190136</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>43953207</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>44475581</v>
+      </c>
+      <c r="BB16" s="4">
+        <v>49551877</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>47147284</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>48319676</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>47936782</v>
+      </c>
+      <c r="BF16" s="4">
+        <v>49625081</v>
+      </c>
+      <c r="BG16" s="4">
+        <v>50384387</v>
+      </c>
+      <c r="BH16" s="4">
+        <v>48462901</v>
+      </c>
+      <c r="BI16" s="4">
+        <v>46338827</v>
+      </c>
+      <c r="BJ16" s="4">
+        <v>45499106</v>
+      </c>
+      <c r="BK16" s="4">
+        <v>42297049</v>
+      </c>
+      <c r="BL16" s="4">
+        <v>49692778</v>
+      </c>
+      <c r="BM16" s="4">
+        <v>46877933</v>
+      </c>
+      <c r="BN16" s="4">
+        <v>50794802</v>
+      </c>
+      <c r="BO16" s="4">
+        <v>46619880</v>
+      </c>
+      <c r="BP16" s="4">
+        <v>45594263</v>
+      </c>
+      <c r="BQ16" s="4">
+        <v>46765084</v>
+      </c>
+      <c r="BR16" s="4">
+        <v>46555116</v>
+      </c>
+      <c r="BS16" s="4">
+        <v>49792661</v>
+      </c>
+      <c r="BT16" s="4">
+        <v>46013018</v>
+      </c>
+      <c r="BU16" s="4">
+        <v>45297859</v>
+      </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
+      <c r="B17" s="4">
+        <v>26660225</v>
+      </c>
+      <c r="C17" s="4">
+        <v>25691772</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30479476</v>
+      </c>
+      <c r="E17" s="4">
+        <v>28193987</v>
+      </c>
+      <c r="F17" s="4">
+        <v>31674995</v>
+      </c>
+      <c r="G17" s="4">
+        <v>30113708</v>
+      </c>
+      <c r="H17" s="4">
+        <v>30888960</v>
+      </c>
+      <c r="I17" s="4">
+        <v>30741263</v>
+      </c>
+      <c r="J17" s="4">
+        <v>31720058</v>
+      </c>
+      <c r="K17" s="4">
+        <v>30969720</v>
+      </c>
+      <c r="L17" s="4">
+        <v>29100253</v>
+      </c>
+      <c r="M17" s="4">
+        <v>29317727</v>
+      </c>
+      <c r="N17" s="4">
+        <v>28646230</v>
+      </c>
+      <c r="O17" s="4">
+        <v>26927430</v>
+      </c>
+      <c r="P17" s="4">
+        <v>31725394</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>29045430</v>
+      </c>
+      <c r="R17" s="4">
+        <v>32314734</v>
+      </c>
+      <c r="S17" s="4">
+        <v>30311984</v>
+      </c>
+      <c r="T17" s="4">
+        <v>31302930</v>
+      </c>
+      <c r="U17" s="4">
+        <v>31423359</v>
+      </c>
+      <c r="V17" s="4">
+        <v>31665777</v>
+      </c>
+      <c r="W17" s="4">
+        <v>31770212</v>
+      </c>
+      <c r="X17" s="4">
+        <v>31197092</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>30678380</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>30265706</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>25974636</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>26888465</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>27378147</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>30906219</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>30576915</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>31453172</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>30710939</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>30432209</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>31994897</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>30288935</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>27171764</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>25802590</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>25924645</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>30990543</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>29839721</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>32257864</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>31840981</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>32290398</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>31744788</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>32627115</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>33539216</v>
+      </c>
+      <c r="AV17" s="4">
+        <v>32085041</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>31661561</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>30652502</v>
+      </c>
+      <c r="AY17" s="4">
+        <v>27097311</v>
+      </c>
+      <c r="AZ17" s="4">
+        <v>31940944</v>
+      </c>
+      <c r="BA17" s="4">
+        <v>32481974</v>
+      </c>
+      <c r="BB17" s="4">
+        <v>36517658</v>
+      </c>
+      <c r="BC17" s="4">
+        <v>34591193</v>
+      </c>
+      <c r="BD17" s="4">
+        <v>35790096</v>
+      </c>
+      <c r="BE17" s="4">
+        <v>35548297</v>
+      </c>
+      <c r="BF17" s="4">
+        <v>36343824</v>
+      </c>
+      <c r="BG17" s="4">
+        <v>36956881</v>
+      </c>
+      <c r="BH17" s="4">
+        <v>35521969</v>
+      </c>
+      <c r="BI17" s="4">
+        <v>33424143</v>
+      </c>
+      <c r="BJ17" s="4">
+        <v>33236314</v>
+      </c>
+      <c r="BK17" s="4">
+        <v>30736822</v>
+      </c>
+      <c r="BL17" s="4">
+        <v>36234323</v>
+      </c>
+      <c r="BM17" s="4">
+        <v>34156427</v>
+      </c>
+      <c r="BN17" s="4">
+        <v>37352453</v>
+      </c>
+      <c r="BO17" s="4">
+        <v>33543908</v>
+      </c>
+      <c r="BP17" s="4">
+        <v>33334042</v>
+      </c>
+      <c r="BQ17" s="4">
+        <v>33820531</v>
+      </c>
+      <c r="BR17" s="4">
+        <v>33522125</v>
+      </c>
+      <c r="BS17" s="4">
+        <v>35718298</v>
+      </c>
+      <c r="BT17" s="4">
+        <v>33743716</v>
+      </c>
+      <c r="BU17" s="4">
+        <v>32603468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="4"/>
+      <c r="BT18" s="4"/>
+      <c r="BU18" s="4"/>
+    </row>
+    <row r="19" spans="1:73" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="4"/>
+      <c r="BT19" s="4"/>
+      <c r="BU19" s="4"/>
+    </row>
+    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
+      <c r="BP20" s="4"/>
+      <c r="BQ20" s="4"/>
+      <c r="BR20" s="4"/>
+      <c r="BS20" s="4"/>
+      <c r="BT20" s="4"/>
+      <c r="BU20" s="4"/>
+    </row>
+    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
+      <c r="BP21" s="4"/>
+      <c r="BQ21" s="4"/>
+      <c r="BR21" s="4"/>
+      <c r="BS21" s="4"/>
+      <c r="BT21" s="4"/>
+      <c r="BU21" s="4"/>
+    </row>
+    <row r="22" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
+      <c r="BQ22" s="4"/>
+      <c r="BR22" s="4"/>
+      <c r="BS22" s="4"/>
+      <c r="BT22" s="4"/>
+      <c r="BU22" s="4"/>
+    </row>
+    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BS23" s="4"/>
+      <c r="BT23" s="4"/>
+      <c r="BU23" s="4"/>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4"/>
+      <c r="BO24" s="4"/>
+      <c r="BP24" s="4"/>
+      <c r="BQ24" s="4"/>
+      <c r="BR24" s="4"/>
+      <c r="BS24" s="4"/>
+      <c r="BT24" s="4"/>
+      <c r="BU24" s="4"/>
+    </row>
+    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="4"/>
+      <c r="BO25" s="4"/>
+      <c r="BP25" s="4"/>
+      <c r="BQ25" s="4"/>
+      <c r="BR25" s="4"/>
+      <c r="BS25" s="4"/>
+      <c r="BT25" s="4"/>
+      <c r="BU25" s="4"/>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4"/>
+      <c r="BL26" s="4"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="4"/>
+      <c r="BP26" s="4"/>
+      <c r="BQ26" s="4"/>
+      <c r="BR26" s="4"/>
+      <c r="BS26" s="4"/>
+      <c r="BT26" s="4"/>
+      <c r="BU26" s="4"/>
+    </row>
+    <row r="27" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
+      <c r="BL27" s="4"/>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="4"/>
+      <c r="BO27" s="4"/>
+      <c r="BP27" s="4"/>
+      <c r="BQ27" s="4"/>
+      <c r="BR27" s="4"/>
+      <c r="BS27" s="4"/>
+      <c r="BT27" s="4"/>
+      <c r="BU27" s="4"/>
+    </row>
+    <row r="28" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+      <c r="BH28" s="4"/>
+      <c r="BI28" s="4"/>
+      <c r="BJ28" s="4"/>
+      <c r="BK28" s="4"/>
+      <c r="BL28" s="4"/>
+      <c r="BM28" s="4"/>
+      <c r="BN28" s="4"/>
+      <c r="BO28" s="4"/>
+      <c r="BP28" s="4"/>
+      <c r="BQ28" s="4"/>
+      <c r="BR28" s="4"/>
+      <c r="BS28" s="4"/>
+      <c r="BT28" s="4"/>
+      <c r="BU28" s="4"/>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
+      <c r="BK29" s="4"/>
+      <c r="BL29" s="4"/>
+      <c r="BM29" s="4"/>
+      <c r="BN29" s="4"/>
+      <c r="BO29" s="4"/>
+      <c r="BP29" s="4"/>
+      <c r="BQ29" s="4"/>
+      <c r="BR29" s="4"/>
+      <c r="BS29" s="4"/>
+      <c r="BT29" s="4"/>
+      <c r="BU29" s="4"/>
+    </row>
+    <row r="30" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="4"/>
+      <c r="AZ30" s="4"/>
+      <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
+      <c r="BG30" s="4"/>
+      <c r="BH30" s="4"/>
+      <c r="BI30" s="4"/>
+      <c r="BJ30" s="4"/>
+      <c r="BK30" s="4"/>
+      <c r="BL30" s="4"/>
+      <c r="BM30" s="4"/>
+      <c r="BN30" s="4"/>
+      <c r="BO30" s="4"/>
+      <c r="BP30" s="4"/>
+      <c r="BQ30" s="4"/>
+      <c r="BR30" s="4"/>
+      <c r="BS30" s="4"/>
+      <c r="BT30" s="4"/>
+      <c r="BU30" s="4"/>
+    </row>
+    <row r="31" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="4"/>
+      <c r="BI31" s="4"/>
+      <c r="BJ31" s="4"/>
+      <c r="BK31" s="4"/>
+      <c r="BL31" s="4"/>
+      <c r="BM31" s="4"/>
+      <c r="BN31" s="4"/>
+      <c r="BO31" s="4"/>
+      <c r="BP31" s="4"/>
+      <c r="BQ31" s="4"/>
+      <c r="BR31" s="4"/>
+      <c r="BS31" s="4"/>
+      <c r="BT31" s="4"/>
+      <c r="BU31" s="4"/>
+    </row>
+    <row r="32" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+      <c r="BF32" s="4"/>
+      <c r="BG32" s="4"/>
+      <c r="BH32" s="4"/>
+      <c r="BI32" s="4"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
+      <c r="BL32" s="4"/>
+      <c r="BM32" s="4"/>
+      <c r="BN32" s="4"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="4"/>
+      <c r="BQ32" s="4"/>
+      <c r="BR32" s="4"/>
+      <c r="BS32" s="4"/>
+      <c r="BT32" s="4"/>
+      <c r="BU32" s="4"/>
+    </row>
+    <row r="33" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
+      <c r="BK33" s="4"/>
+      <c r="BL33" s="4"/>
+      <c r="BM33" s="4"/>
+      <c r="BN33" s="4"/>
+      <c r="BO33" s="4"/>
+      <c r="BP33" s="4"/>
+      <c r="BQ33" s="4"/>
+      <c r="BR33" s="4"/>
+      <c r="BS33" s="4"/>
+      <c r="BT33" s="4"/>
+      <c r="BU33" s="4"/>
+    </row>
+    <row r="34" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="4"/>
+      <c r="BL34" s="4"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="4"/>
+      <c r="BO34" s="4"/>
+      <c r="BP34" s="4"/>
+      <c r="BQ34" s="4"/>
+      <c r="BR34" s="4"/>
+      <c r="BS34" s="4"/>
+      <c r="BT34" s="4"/>
+      <c r="BU34" s="4"/>
+    </row>
+    <row r="35" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+      <c r="BS35" s="4"/>
+      <c r="BT35" s="4"/>
+      <c r="BU35" s="4"/>
+    </row>
+    <row r="36" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+      <c r="BS36" s="4"/>
+      <c r="BT36" s="4"/>
+      <c r="BU36" s="4"/>
+    </row>
+    <row r="37" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+      <c r="BH37" s="4"/>
+      <c r="BI37" s="4"/>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="4"/>
+      <c r="BL37" s="4"/>
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="4"/>
+      <c r="BO37" s="4"/>
+      <c r="BP37" s="4"/>
+      <c r="BQ37" s="4"/>
+      <c r="BR37" s="4"/>
+      <c r="BS37" s="4"/>
+      <c r="BT37" s="4"/>
+      <c r="BU37" s="4"/>
+    </row>
+    <row r="38" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+      <c r="BH38" s="4"/>
+      <c r="BI38" s="4"/>
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="4"/>
+      <c r="BL38" s="4"/>
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="4"/>
+      <c r="BO38" s="4"/>
+      <c r="BP38" s="4"/>
+      <c r="BQ38" s="4"/>
+      <c r="BR38" s="4"/>
+      <c r="BS38" s="4"/>
+      <c r="BT38" s="4"/>
+      <c r="BU38" s="4"/>
+    </row>
+    <row r="39" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4"/>
+      <c r="BI39" s="4"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="4"/>
+      <c r="BL39" s="4"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="4"/>
+      <c r="BO39" s="4"/>
+      <c r="BP39" s="4"/>
+      <c r="BQ39" s="4"/>
+      <c r="BR39" s="4"/>
+      <c r="BS39" s="4"/>
+      <c r="BT39" s="4"/>
+      <c r="BU39" s="4"/>
+    </row>
+    <row r="40" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="4"/>
+      <c r="BL40" s="4"/>
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="4"/>
+      <c r="BO40" s="4"/>
+      <c r="BP40" s="4"/>
+      <c r="BQ40" s="4"/>
+      <c r="BR40" s="4"/>
+      <c r="BS40" s="4"/>
+      <c r="BT40" s="4"/>
+      <c r="BU40" s="4"/>
+    </row>
+    <row r="41" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
+      <c r="BB41" s="4"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+      <c r="BH41" s="4"/>
+      <c r="BI41" s="4"/>
+      <c r="BJ41" s="4"/>
+      <c r="BK41" s="4"/>
+      <c r="BL41" s="4"/>
+      <c r="BM41" s="4"/>
+      <c r="BN41" s="4"/>
+      <c r="BO41" s="4"/>
+      <c r="BP41" s="4"/>
+      <c r="BQ41" s="4"/>
+      <c r="BR41" s="4"/>
+      <c r="BS41" s="4"/>
+      <c r="BT41" s="4"/>
+      <c r="BU41" s="4"/>
+    </row>
+    <row r="42" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+      <c r="BG42" s="4"/>
+      <c r="BH42" s="4"/>
+      <c r="BI42" s="4"/>
+      <c r="BJ42" s="4"/>
+      <c r="BK42" s="4"/>
+      <c r="BL42" s="4"/>
+      <c r="BM42" s="4"/>
+      <c r="BN42" s="4"/>
+      <c r="BO42" s="4"/>
+      <c r="BP42" s="4"/>
+      <c r="BQ42" s="4"/>
+      <c r="BR42" s="4"/>
+      <c r="BS42" s="4"/>
+      <c r="BT42" s="4"/>
+      <c r="BU42" s="4"/>
+    </row>
+    <row r="43" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="4"/>
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
+      <c r="BF43" s="4"/>
+      <c r="BG43" s="4"/>
+      <c r="BH43" s="4"/>
+      <c r="BI43" s="4"/>
+      <c r="BJ43" s="4"/>
+      <c r="BK43" s="4"/>
+      <c r="BL43" s="4"/>
+      <c r="BM43" s="4"/>
+      <c r="BN43" s="4"/>
+      <c r="BO43" s="4"/>
+      <c r="BP43" s="4"/>
+      <c r="BQ43" s="4"/>
+      <c r="BR43" s="4"/>
+      <c r="BS43" s="4"/>
+      <c r="BT43" s="4"/>
+      <c r="BU43" s="4"/>
+    </row>
+    <row r="44" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
+      <c r="BF44" s="4"/>
+      <c r="BG44" s="4"/>
+      <c r="BH44" s="4"/>
+      <c r="BI44" s="4"/>
+      <c r="BJ44" s="4"/>
+      <c r="BK44" s="4"/>
+      <c r="BL44" s="4"/>
+      <c r="BM44" s="4"/>
+      <c r="BN44" s="4"/>
+      <c r="BO44" s="4"/>
+      <c r="BP44" s="4"/>
+      <c r="BQ44" s="4"/>
+      <c r="BR44" s="4"/>
+      <c r="BS44" s="4"/>
+      <c r="BT44" s="4"/>
+      <c r="BU44" s="4"/>
+    </row>
+    <row r="45" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="4"/>
+      <c r="BB45" s="4"/>
+      <c r="BC45" s="4"/>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="4"/>
+      <c r="BF45" s="4"/>
+      <c r="BG45" s="4"/>
+      <c r="BH45" s="4"/>
+      <c r="BI45" s="4"/>
+      <c r="BJ45" s="4"/>
+      <c r="BK45" s="4"/>
+      <c r="BL45" s="4"/>
+      <c r="BM45" s="4"/>
+      <c r="BN45" s="4"/>
+      <c r="BO45" s="4"/>
+      <c r="BP45" s="4"/>
+      <c r="BQ45" s="4"/>
+      <c r="BR45" s="4"/>
+      <c r="BS45" s="4"/>
+      <c r="BT45" s="4"/>
+      <c r="BU45" s="4"/>
+    </row>
+    <row r="46" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="4"/>
+      <c r="BB46" s="4"/>
+      <c r="BC46" s="4"/>
+      <c r="BD46" s="4"/>
+      <c r="BE46" s="4"/>
+      <c r="BF46" s="4"/>
+      <c r="BG46" s="4"/>
+      <c r="BH46" s="4"/>
+      <c r="BI46" s="4"/>
+      <c r="BJ46" s="4"/>
+      <c r="BK46" s="4"/>
+      <c r="BL46" s="4"/>
+      <c r="BM46" s="4"/>
+      <c r="BN46" s="4"/>
+      <c r="BO46" s="4"/>
+      <c r="BP46" s="4"/>
+      <c r="BQ46" s="4"/>
+      <c r="BR46" s="4"/>
+      <c r="BS46" s="4"/>
+      <c r="BT46" s="4"/>
+      <c r="BU46" s="4"/>
+    </row>
+    <row r="47" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4"/>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="4"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="4"/>
+      <c r="BA47" s="4"/>
+      <c r="BB47" s="4"/>
+      <c r="BC47" s="4"/>
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="4"/>
+      <c r="BF47" s="4"/>
+      <c r="BG47" s="4"/>
+      <c r="BH47" s="4"/>
+      <c r="BI47" s="4"/>
+      <c r="BJ47" s="4"/>
+      <c r="BK47" s="4"/>
+      <c r="BL47" s="4"/>
+      <c r="BM47" s="4"/>
+      <c r="BN47" s="4"/>
+      <c r="BO47" s="4"/>
+      <c r="BP47" s="4"/>
+      <c r="BQ47" s="4"/>
+      <c r="BR47" s="4"/>
+      <c r="BS47" s="4"/>
+      <c r="BT47" s="4"/>
+      <c r="BU47" s="4"/>
+    </row>
+    <row r="48" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="4"/>
+      <c r="BG48" s="4"/>
+      <c r="BH48" s="4"/>
+      <c r="BI48" s="4"/>
+      <c r="BJ48" s="4"/>
+      <c r="BK48" s="4"/>
+      <c r="BL48" s="4"/>
+      <c r="BM48" s="4"/>
+      <c r="BN48" s="4"/>
+      <c r="BO48" s="4"/>
+      <c r="BP48" s="4"/>
+      <c r="BQ48" s="4"/>
+      <c r="BR48" s="4"/>
+      <c r="BS48" s="4"/>
+      <c r="BT48" s="4"/>
+      <c r="BU48" s="4"/>
+    </row>
+    <row r="49" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+      <c r="BG49" s="4"/>
+      <c r="BH49" s="4"/>
+      <c r="BI49" s="4"/>
+      <c r="BJ49" s="4"/>
+      <c r="BK49" s="4"/>
+      <c r="BL49" s="4"/>
+      <c r="BM49" s="4"/>
+      <c r="BN49" s="4"/>
+      <c r="BO49" s="4"/>
+      <c r="BP49" s="4"/>
+      <c r="BQ49" s="4"/>
+      <c r="BR49" s="4"/>
+      <c r="BS49" s="4"/>
+      <c r="BT49" s="4"/>
+      <c r="BU49" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>